--- a/data/trans_orig/P29-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>80607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66264</v>
+        <v>66033</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95850</v>
+        <v>95534</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2952511825344536</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2427151395230715</v>
+        <v>0.2418693269371306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3510851339011135</v>
+        <v>0.3499277219524799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>116</v>
@@ -765,19 +765,19 @@
         <v>126282</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109441</v>
+        <v>110919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>141082</v>
+        <v>143178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.484139108639575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4195729413332817</v>
+        <v>0.4252394154420586</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5408793860662966</v>
+        <v>0.5489159134889637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>195</v>
@@ -786,19 +786,19 @@
         <v>206888</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184160</v>
+        <v>184997</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>230121</v>
+        <v>231320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3875418031129899</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3449667637042918</v>
+        <v>0.3465348046330718</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4310603809946491</v>
+        <v>0.4333066718869197</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>46254</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34942</v>
+        <v>35371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59307</v>
+        <v>60679</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1694234103243442</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1279876443618743</v>
+        <v>0.1295593117958357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2172352142522464</v>
+        <v>0.2222610289338533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>59</v>
@@ -836,19 +836,19 @@
         <v>61080</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47517</v>
+        <v>48052</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76932</v>
+        <v>77517</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.234170183063722</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1821702207454541</v>
+        <v>0.1842215922920524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2949405636716187</v>
+        <v>0.2971847914821388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -857,19 +857,19 @@
         <v>107335</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>88016</v>
+        <v>88554</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>127042</v>
+        <v>125061</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2010586765893202</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1648704820863374</v>
+        <v>0.165879430014774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.237974263508431</v>
+        <v>0.234263273530513</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>146149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129719</v>
+        <v>129399</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163302</v>
+        <v>162549</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5353254071412022</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4751440856458734</v>
+        <v>0.4739711090695155</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5981548296332735</v>
+        <v>0.59539477088091</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -907,19 +907,19 @@
         <v>73476</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>60789</v>
+        <v>59725</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>89759</v>
+        <v>89165</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.281690708296703</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2330530308160519</v>
+        <v>0.2289729740208889</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3441174501699775</v>
+        <v>0.3418411626602348</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>216</v>
@@ -928,19 +928,19 @@
         <v>219625</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>197300</v>
+        <v>197033</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240923</v>
+        <v>243447</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4113995202976898</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.369580989576085</v>
+        <v>0.369079847076388</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4512949376993323</v>
+        <v>0.4560226673361223</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>151510</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>131785</v>
+        <v>131430</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173815</v>
+        <v>173811</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3072761065529996</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2672725480209181</v>
+        <v>0.2665522106490829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3525118816087969</v>
+        <v>0.3525042768227536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>297</v>
@@ -1053,19 +1053,19 @@
         <v>301722</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>277457</v>
+        <v>278324</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322337</v>
+        <v>322100</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5987160219323574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5505650535316505</v>
+        <v>0.5522856353894419</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6396230095198598</v>
+        <v>0.6391520635079425</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>437</v>
@@ -1074,19 +1074,19 @@
         <v>453232</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>420118</v>
+        <v>421933</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>483028</v>
+        <v>484060</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4545853452594773</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4213716336795295</v>
+        <v>0.4231924109309038</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4844694698449929</v>
+        <v>0.4855044495950476</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>112748</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94290</v>
+        <v>93437</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>132628</v>
+        <v>133175</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2286625634053967</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1912291645140286</v>
+        <v>0.1894994528513763</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2689813217090591</v>
+        <v>0.2700906182121107</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>130</v>
@@ -1124,19 +1124,19 @@
         <v>129476</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>111583</v>
+        <v>111493</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>151009</v>
+        <v>149747</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2569225002958128</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2214174051730671</v>
+        <v>0.2212387069503517</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.299651967938661</v>
+        <v>0.2971463680373801</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>235</v>
@@ -1145,19 +1145,19 @@
         <v>242224</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>215621</v>
+        <v>214137</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>271789</v>
+        <v>267662</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.242946639022841</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.216264996620043</v>
+        <v>0.2147760089148937</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2725999984234623</v>
+        <v>0.2684611830635268</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>228817</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>206199</v>
+        <v>205599</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>250364</v>
+        <v>251609</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4640613300416037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4181892641123401</v>
+        <v>0.4169736871367815</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.507760969047844</v>
+        <v>0.5102855850780086</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>72</v>
@@ -1195,19 +1195,19 @@
         <v>72751</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58596</v>
+        <v>57221</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89967</v>
+        <v>89777</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1443614777718298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1162745465561115</v>
+        <v>0.1135456030511075</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1785241698661458</v>
+        <v>0.1781474980912955</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>292</v>
@@ -1216,19 +1216,19 @@
         <v>301568</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>270864</v>
+        <v>273765</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>328416</v>
+        <v>330979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3024680157176817</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2716727387614898</v>
+        <v>0.2745823641191669</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3293963308298363</v>
+        <v>0.3319669965695222</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>66467</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>53025</v>
+        <v>52189</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>83298</v>
+        <v>81239</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2084614700466167</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1663023528424451</v>
+        <v>0.163681198661401</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.261249543034052</v>
+        <v>0.254790891190091</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>176</v>
@@ -1341,19 +1341,19 @@
         <v>179208</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>160859</v>
+        <v>161984</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>196200</v>
+        <v>197779</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.534292739806501</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4795857049649653</v>
+        <v>0.4829398022243959</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5849533029451894</v>
+        <v>0.5896592095925831</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>240</v>
@@ -1362,19 +1362,19 @@
         <v>245675</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>223912</v>
+        <v>221716</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>272419</v>
+        <v>268827</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3755021985335024</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3422385492561521</v>
+        <v>0.3388812667171592</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.416378199840182</v>
+        <v>0.4108886914147215</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>58439</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45176</v>
+        <v>46102</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74137</v>
+        <v>72299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1832814671338642</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1416874757517115</v>
+        <v>0.1445891657016003</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2325174601612253</v>
+        <v>0.2267507378962862</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -1412,19 +1412,19 @@
         <v>69235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55197</v>
+        <v>55656</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85372</v>
+        <v>83515</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2064184010235917</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1645634402842561</v>
+        <v>0.1659337701005976</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2545287709835491</v>
+        <v>0.2489918007115993</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1433,19 +1433,19 @@
         <v>127674</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110502</v>
+        <v>108084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152786</v>
+        <v>148715</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1951428526133521</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1688966087230674</v>
+        <v>0.1652003551683759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2335258619528307</v>
+        <v>0.2273037025945234</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>193940</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174667</v>
+        <v>177150</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210680</v>
+        <v>210909</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6082570628195192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5478097419589582</v>
+        <v>0.5555975754437796</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6607569834227061</v>
+        <v>0.6614754974531014</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -1483,19 +1483,19 @@
         <v>86969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71263</v>
+        <v>72321</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>104002</v>
+        <v>103056</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2592888591699072</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.212462743808262</v>
+        <v>0.2156194817643564</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3100715942338443</v>
+        <v>0.3072508173303996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>278</v>
@@ -1504,19 +1504,19 @@
         <v>280909</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>256931</v>
+        <v>256457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>305607</v>
+        <v>304337</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4293549488531455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.392706120062884</v>
+        <v>0.3919811363777889</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4671048743447655</v>
+        <v>0.4651634097059781</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>57927</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45969</v>
+        <v>44604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72731</v>
+        <v>70965</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1615049051740886</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1281657744183792</v>
+        <v>0.1243596155415964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2027797621249883</v>
+        <v>0.1978561396779953</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -1629,19 +1629,19 @@
         <v>137422</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>119389</v>
+        <v>117965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>155091</v>
+        <v>154164</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.369955970870294</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3214075535969725</v>
+        <v>0.317574574399937</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4175213343232171</v>
+        <v>0.4150274559616217</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>202</v>
@@ -1650,19 +1650,19 @@
         <v>195349</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>171294</v>
+        <v>171428</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>220558</v>
+        <v>217226</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2675554739124316</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2346086188822778</v>
+        <v>0.2347921595866965</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3020822781375668</v>
+        <v>0.29751790394721</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>62849</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49890</v>
+        <v>48947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79537</v>
+        <v>79836</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.175226788814549</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1390962383082956</v>
+        <v>0.136469033599517</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2217555614798874</v>
+        <v>0.2225895332550054</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -1700,19 +1700,19 @@
         <v>103107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87797</v>
+        <v>87903</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121283</v>
+        <v>121015</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2775757443084054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2363578788937826</v>
+        <v>0.2366453182717529</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3265074161789641</v>
+        <v>0.3257864359741175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>173</v>
@@ -1721,19 +1721,19 @@
         <v>165956</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>147414</v>
+        <v>145586</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>190344</v>
+        <v>186892</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.227297354650454</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2019018367723228</v>
+        <v>0.1993976493866741</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2606997488022282</v>
+        <v>0.2559714967488698</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>237895</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>218519</v>
+        <v>218969</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>253346</v>
+        <v>256512</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6632683060113623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.609245635250056</v>
+        <v>0.6105007953449231</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7063465734468267</v>
+        <v>0.7151741295027293</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>133</v>
@@ -1771,19 +1771,19 @@
         <v>130926</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>113298</v>
+        <v>113287</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>149940</v>
+        <v>149564</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3524682848213005</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3050094243985675</v>
+        <v>0.3049821416608679</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.403655411089568</v>
+        <v>0.4026431574067207</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>371</v>
@@ -1792,19 +1792,19 @@
         <v>368822</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>339548</v>
+        <v>343482</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>394640</v>
+        <v>397670</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5051471714371143</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4650538957542649</v>
+        <v>0.4704412795411926</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5405086019204042</v>
+        <v>0.5446588573511327</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>62388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>48227</v>
+        <v>49373</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>75597</v>
+        <v>76361</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3068652552277677</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2372121935642466</v>
+        <v>0.2428482831978637</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3718361902794151</v>
+        <v>0.3755948910241273</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>111</v>
@@ -1917,19 +1917,19 @@
         <v>116794</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>101709</v>
+        <v>102017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>130493</v>
+        <v>131285</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5624057646050814</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4897653484098001</v>
+        <v>0.4912513944577248</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6283751614877437</v>
+        <v>0.6321859698336907</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>173</v>
@@ -1938,19 +1938,19 @@
         <v>179182</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>158657</v>
+        <v>157584</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199695</v>
+        <v>198879</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4359909962974804</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3860493366943654</v>
+        <v>0.383438937136485</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4859048457241358</v>
+        <v>0.4839185873844197</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>44022</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33464</v>
+        <v>33259</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>56899</v>
+        <v>57387</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2165297697745317</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1645979371322295</v>
+        <v>0.1635898067111053</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2798675429293558</v>
+        <v>0.2822660541177363</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>43</v>
@@ -1988,19 +1988,19 @@
         <v>43578</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>33320</v>
+        <v>32066</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>56739</v>
+        <v>55610</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2098439541172523</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.160450181332832</v>
+        <v>0.1544117826417389</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2732203615147466</v>
+        <v>0.2677829504238267</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>89</v>
@@ -2009,19 +2009,19 @@
         <v>87600</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73178</v>
+        <v>70208</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>104850</v>
+        <v>103536</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2131513977758793</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1780582404006158</v>
+        <v>0.1708317136396259</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2551246588390542</v>
+        <v>0.2519265182015996</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>96898</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>81535</v>
+        <v>83894</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>111635</v>
+        <v>110796</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4766049749977005</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.401043054153236</v>
+        <v>0.4126435377293187</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5490947573113182</v>
+        <v>0.5449662757363044</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2059,19 +2059,19 @@
         <v>47296</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36597</v>
+        <v>36420</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60351</v>
+        <v>61122</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2277502812776663</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1762294551087399</v>
+        <v>0.1753763699996565</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2906129743322483</v>
+        <v>0.2943234767125016</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -2080,19 +2080,19 @@
         <v>144194</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123261</v>
+        <v>123788</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162791</v>
+        <v>163357</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3508576059266403</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2999221897935515</v>
+        <v>0.3012048100056146</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3961071672246597</v>
+        <v>0.3974847409808464</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>43751</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>33579</v>
+        <v>32541</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57447</v>
+        <v>56799</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1615541399931544</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1239941141898898</v>
+        <v>0.1201620432435411</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2121293130458714</v>
+        <v>0.2097367045391551</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>110</v>
@@ -2205,19 +2205,19 @@
         <v>115092</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>97920</v>
+        <v>98449</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>131053</v>
+        <v>130950</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4137845382369023</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.352047059319808</v>
+        <v>0.3539482527150243</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4711697107431895</v>
+        <v>0.4708004178702702</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>155</v>
@@ -2226,19 +2226,19 @@
         <v>158842</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>139145</v>
+        <v>138891</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>180717</v>
+        <v>179814</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2893539985939981</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2534721179011735</v>
+        <v>0.2530089764821183</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3292019084941541</v>
+        <v>0.3275564843008073</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>32777</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23453</v>
+        <v>22838</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45738</v>
+        <v>45566</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1210316008549206</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0866019948911957</v>
+        <v>0.0843316336532272</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1688916917982504</v>
+        <v>0.16825707600542</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -2276,19 +2276,19 @@
         <v>51269</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39740</v>
+        <v>39171</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65435</v>
+        <v>65423</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1843256661842428</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1428772267709307</v>
+        <v>0.1408304704597523</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2352544881732979</v>
+        <v>0.2352111071617966</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>85</v>
@@ -2297,19 +2297,19 @@
         <v>84046</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68496</v>
+        <v>67291</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>99912</v>
+        <v>100026</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1531013777560497</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1247747121713394</v>
+        <v>0.1225805692272995</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1820048537869269</v>
+        <v>0.1822121503497156</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>194284</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>178979</v>
+        <v>177283</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>207355</v>
+        <v>206844</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.717414259151925</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6609016731940199</v>
+        <v>0.6546362972325253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.765681927356784</v>
+        <v>0.7637948155007473</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>108</v>
@@ -2347,19 +2347,19 @@
         <v>111783</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>96122</v>
+        <v>94000</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>130215</v>
+        <v>126875</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4018897955788549</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.345583701113598</v>
+        <v>0.3379547301169124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4681552736044468</v>
+        <v>0.4561502869933759</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>296</v>
@@ -2368,19 +2368,19 @@
         <v>306067</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>282800</v>
+        <v>282970</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>330051</v>
+        <v>329524</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5575446236499523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5151604553185808</v>
+        <v>0.5154700404008794</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6012352640351758</v>
+        <v>0.6002755099720514</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>227050</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>204175</v>
+        <v>203579</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>251909</v>
+        <v>253569</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3691710914661652</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3319775384964977</v>
+        <v>0.3310077160094833</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4095898698768407</v>
+        <v>0.4122897433105006</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>391</v>
@@ -2493,19 +2493,19 @@
         <v>407560</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>382017</v>
+        <v>383249</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>429920</v>
+        <v>431384</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6385898286829097</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5985674899278308</v>
+        <v>0.6004977003615554</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6736247776987477</v>
+        <v>0.6759186511387107</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>604</v>
@@ -2514,19 +2514,19 @@
         <v>634610</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>596857</v>
+        <v>596192</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>668661</v>
+        <v>670858</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5063733339496568</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4762485411731424</v>
+        <v>0.4757181472751502</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5335435504340341</v>
+        <v>0.5352961036366773</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>97944</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>80399</v>
+        <v>81115</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>116105</v>
+        <v>116450</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1592512872372888</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.130725147758639</v>
+        <v>0.1318887162063282</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1887808539679873</v>
+        <v>0.189340904830587</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>99</v>
@@ -2564,19 +2564,19 @@
         <v>98278</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>82513</v>
+        <v>80839</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117865</v>
+        <v>117883</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1539878863686988</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.129285785745668</v>
+        <v>0.1266634324785825</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.184677925995561</v>
+        <v>0.1847055775823032</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>201</v>
@@ -2585,19 +2585,19 @@
         <v>196222</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>172645</v>
+        <v>173073</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>221912</v>
+        <v>221379</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1565708856819985</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1377585621215956</v>
+        <v>0.1380995350018423</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1770699671708855</v>
+        <v>0.1766447185597646</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>290033</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>264782</v>
+        <v>263308</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>313090</v>
+        <v>314317</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.471577621296546</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4305213058393191</v>
+        <v>0.4281250620034738</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5090669814375658</v>
+        <v>0.5110613784068833</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>131</v>
@@ -2635,19 +2635,19 @@
         <v>132381</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>112159</v>
+        <v>114428</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152486</v>
+        <v>154236</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2074222849483915</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.175737152891664</v>
+        <v>0.1792927801304751</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2389248580499335</v>
+        <v>0.2416667245257009</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>414</v>
@@ -2656,19 +2656,19 @@
         <v>422414</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>389986</v>
+        <v>386984</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>456851</v>
+        <v>457648</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3370557803683447</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3111809820549697</v>
+        <v>0.3087851567028278</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3645339163042967</v>
+        <v>0.3651701700974769</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>163852</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>141648</v>
+        <v>140869</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>187256</v>
+        <v>188087</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2202917055193975</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1904393351777385</v>
+        <v>0.1893924159272103</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2517572166713403</v>
+        <v>0.2528744362841732</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>377</v>
@@ -2781,19 +2781,19 @@
         <v>402882</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>373102</v>
+        <v>373687</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>429141</v>
+        <v>429623</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5142002667780029</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4761929233879086</v>
+        <v>0.4769386443927524</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5477151024157433</v>
+        <v>0.5483300165585119</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>541</v>
@@ -2802,19 +2802,19 @@
         <v>566733</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>529418</v>
+        <v>532150</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>603872</v>
+        <v>611552</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3710673748542771</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3466353875585382</v>
+        <v>0.3484237728180171</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3953840390213958</v>
+        <v>0.4004123217357131</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>87055</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>70518</v>
+        <v>68613</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>105703</v>
+        <v>105762</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1170419519449587</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09480785147298014</v>
+        <v>0.09224699167995244</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1421134238553315</v>
+        <v>0.142191748980804</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>139</v>
@@ -2852,19 +2852,19 @@
         <v>140691</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>121876</v>
+        <v>120273</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>163492</v>
+        <v>164705</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1795647606227033</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1555505582126819</v>
+        <v>0.1535056054806475</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2086659937121738</v>
+        <v>0.2102146403007979</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>228</v>
@@ -2873,19 +2873,19 @@
         <v>227746</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>203663</v>
+        <v>202132</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>256570</v>
+        <v>256157</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1491162756281976</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1333479281579305</v>
+        <v>0.1323456073508138</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1679883221916627</v>
+        <v>0.1677182414947768</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>492888</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>464614</v>
+        <v>466066</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>517434</v>
+        <v>519366</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6626663425356438</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6246534579766513</v>
+        <v>0.6266051273999703</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6956675731815805</v>
+        <v>0.6982648290537207</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>229</v>
@@ -2923,19 +2923,19 @@
         <v>239938</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>214699</v>
+        <v>212952</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>268276</v>
+        <v>267260</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3062349725992938</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2740219668892701</v>
+        <v>0.2717921534508363</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3424024183095581</v>
+        <v>0.3411050055640398</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>712</v>
@@ -2944,19 +2944,19 @@
         <v>732826</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>693856</v>
+        <v>687948</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>774331</v>
+        <v>770295</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4798163495175253</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4543008020451561</v>
+        <v>0.4504323595990551</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5069912374962116</v>
+        <v>0.5043486474469301</v>
       </c>
     </row>
     <row r="35">
@@ -3048,19 +3048,19 @@
         <v>853552</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>799159</v>
+        <v>808020</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>904543</v>
+        <v>906590</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2605037613168781</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2439030758347922</v>
+        <v>0.2466074205422118</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2760663454046912</v>
+        <v>0.2766908915165671</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1720</v>
@@ -3069,19 +3069,19 @@
         <v>1786962</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1731811</v>
+        <v>1726457</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1843334</v>
+        <v>1852439</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5288125771850047</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5124917965319051</v>
+        <v>0.5109073783996453</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5454948026145258</v>
+        <v>0.5481890211557454</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2547</v>
@@ -3090,19 +3090,19 @@
         <v>2640514</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2559893</v>
+        <v>2565161</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>2719851</v>
+        <v>2726454</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3967272830643235</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3846142264994757</v>
+        <v>0.3854057969941816</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.408647290168641</v>
+        <v>0.4096393979384069</v>
       </c>
     </row>
     <row r="37">
@@ -3119,19 +3119,19 @@
         <v>542087</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>497644</v>
+        <v>500794</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>580142</v>
+        <v>581413</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1654449205693351</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1518807656139675</v>
+        <v>0.152842054777483</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1770593076817596</v>
+        <v>0.1774470793055561</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>702</v>
@@ -3140,19 +3140,19 @@
         <v>696715</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>647880</v>
+        <v>650464</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>744642</v>
+        <v>747055</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2061775671834648</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1917261656024719</v>
+        <v>0.192490803600443</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2203606124891862</v>
+        <v>0.221074846026584</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1243</v>
@@ -3161,19 +3161,19 @@
         <v>1238802</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1177042</v>
+        <v>1180647</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1299598</v>
+        <v>1307060</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1861253613290532</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1768460540548669</v>
+        <v>0.1773877369785094</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1952596612260772</v>
+        <v>0.1963807966733827</v>
       </c>
     </row>
     <row r="38">
@@ -3190,19 +3190,19 @@
         <v>1880904</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1824603</v>
+        <v>1823521</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1934480</v>
+        <v>1936489</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5740513181137867</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5568683724871063</v>
+        <v>0.5565381121046986</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.590402892886401</v>
+        <v>0.591015818389501</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>875</v>
@@ -3211,19 +3211,19 @@
         <v>895521</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>846116</v>
+        <v>839665</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>949907</v>
+        <v>946737</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2650098556315305</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2503897932298049</v>
+        <v>0.2484804892989605</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.281104229782964</v>
+        <v>0.2801662290495667</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2721</v>
@@ -3232,19 +3232,19 @@
         <v>2776425</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>2699439</v>
+        <v>2691705</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2858153</v>
+        <v>2850291</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4171473556066232</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4055804652034533</v>
+        <v>0.4044185798886609</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.429426657605888</v>
+        <v>0.4282454789954624</v>
       </c>
     </row>
     <row r="39">
@@ -3580,19 +3580,19 @@
         <v>80436</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65601</v>
+        <v>66203</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95510</v>
+        <v>97264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2729052898157986</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2225729956112091</v>
+        <v>0.2246163921515242</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.324050440079806</v>
+        <v>0.3300006509585</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>133</v>
@@ -3601,19 +3601,19 @@
         <v>146227</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>127239</v>
+        <v>127011</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163554</v>
+        <v>162165</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5090669171233561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4429648134101648</v>
+        <v>0.4421696145755212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5693896458291272</v>
+        <v>0.564551638975667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>209</v>
@@ -3622,19 +3622,19 @@
         <v>226662</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>201064</v>
+        <v>200550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>250378</v>
+        <v>251606</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.389465813206739</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.345481698187857</v>
+        <v>0.3445983664482187</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4302161626339914</v>
+        <v>0.4323258930649363</v>
       </c>
     </row>
     <row r="5">
@@ -3651,19 +3651,19 @@
         <v>38978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27941</v>
+        <v>27262</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>51540</v>
+        <v>51060</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.132244736648836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09480089289866922</v>
+        <v>0.0924963487651124</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1748664036396297</v>
+        <v>0.173237589245174</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -3672,19 +3672,19 @@
         <v>31326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21204</v>
+        <v>21803</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>44902</v>
+        <v>45421</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1090580265951679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0738184124186891</v>
+        <v>0.07590536539447051</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1563194469821489</v>
+        <v>0.1581269933761792</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>66</v>
@@ -3693,19 +3693,19 @@
         <v>70304</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56166</v>
+        <v>55529</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87165</v>
+        <v>88885</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1208006460470643</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09650717487165367</v>
+        <v>0.09541281889636673</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1497731915245931</v>
+        <v>0.1527283884685372</v>
       </c>
     </row>
     <row r="6">
@@ -3722,19 +3722,19 @@
         <v>175325</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>156371</v>
+        <v>158172</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>191921</v>
+        <v>192559</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5948499735353654</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5305407356407061</v>
+        <v>0.5366542819076863</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6511572852565743</v>
+        <v>0.6533215391316143</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>95</v>
@@ -3743,19 +3743,19 @@
         <v>109692</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>92681</v>
+        <v>94047</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128961</v>
+        <v>128876</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3818750562814761</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3226550849916626</v>
+        <v>0.3274116741228345</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4489573936941619</v>
+        <v>0.4486623843423244</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>263</v>
@@ -3764,19 +3764,19 @@
         <v>285017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>260898</v>
+        <v>260887</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>312168</v>
+        <v>309925</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4897335407461967</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4482913496572561</v>
+        <v>0.4482717058630195</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5363874885133298</v>
+        <v>0.5325332546626966</v>
       </c>
     </row>
     <row r="7">
@@ -3868,19 +3868,19 @@
         <v>145550</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>123836</v>
+        <v>125484</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>167113</v>
+        <v>168248</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2879169094375106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2449646968108159</v>
+        <v>0.2482248342466067</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3305726762177026</v>
+        <v>0.3328167468063108</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>268</v>
@@ -3889,19 +3889,19 @@
         <v>291859</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>265758</v>
+        <v>268148</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313879</v>
+        <v>316792</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5572321896798067</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5073993838383931</v>
+        <v>0.5119630662565476</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5992750303842923</v>
+        <v>0.6048357580519912</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>399</v>
@@ -3910,19 +3910,19 @@
         <v>437408</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>406284</v>
+        <v>403862</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>473004</v>
+        <v>470329</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4249605113715484</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3947214716130195</v>
+        <v>0.3923685578021771</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4595426806104689</v>
+        <v>0.4569442145026257</v>
       </c>
     </row>
     <row r="9">
@@ -3939,19 +3939,19 @@
         <v>49858</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38456</v>
+        <v>38125</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>66859</v>
+        <v>67344</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09862480301085733</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07607177192076565</v>
+        <v>0.07541686224568352</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.132255421704934</v>
+        <v>0.1332163256198394</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>73</v>
@@ -3960,19 +3960,19 @@
         <v>80545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>63986</v>
+        <v>63536</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>100132</v>
+        <v>98780</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1537799236688485</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1221657634067487</v>
+        <v>0.1213053673541894</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1911777937854755</v>
+        <v>0.188596972573273</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>122</v>
@@ -3981,19 +3981,19 @@
         <v>130402</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>109718</v>
+        <v>109756</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>156319</v>
+        <v>155176</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1266910025717483</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1065954382056685</v>
+        <v>0.1066324443011686</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1518699316211737</v>
+        <v>0.1507601939721007</v>
       </c>
     </row>
     <row r="10">
@@ -4010,19 +4010,19 @@
         <v>310120</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286004</v>
+        <v>286478</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>333540</v>
+        <v>332535</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6134582875516321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5657534804372862</v>
+        <v>0.5666925752070673</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6597868754463673</v>
+        <v>0.6577982074503508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -4031,19 +4031,19 @@
         <v>151362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>130751</v>
+        <v>130569</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>172966</v>
+        <v>175226</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2889878866513448</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2496362618341534</v>
+        <v>0.2492891145247133</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3302364313943496</v>
+        <v>0.3345504820438788</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>431</v>
@@ -4052,19 +4052,19 @@
         <v>461482</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>427190</v>
+        <v>426362</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>495396</v>
+        <v>493759</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4483484860567032</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4150331172275796</v>
+        <v>0.4142281885913138</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4812981189724005</v>
+        <v>0.4797074121529478</v>
       </c>
     </row>
     <row r="11">
@@ -4156,19 +4156,19 @@
         <v>84348</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68848</v>
+        <v>69539</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100978</v>
+        <v>103896</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2602948928377553</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2124626727756532</v>
+        <v>0.2145966660650392</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3116164812371594</v>
+        <v>0.3206201396386841</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>155</v>
@@ -4177,19 +4177,19 @@
         <v>165822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145718</v>
+        <v>146115</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>185347</v>
+        <v>185044</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4862526207368915</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4273012855763074</v>
+        <v>0.428464683170532</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5435074740914266</v>
+        <v>0.5426186243108868</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>233</v>
@@ -4198,19 +4198,19 @@
         <v>250169</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>226182</v>
+        <v>225514</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>276672</v>
+        <v>275678</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3761572360884239</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3400893784415336</v>
+        <v>0.339085051460958</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4160065126100543</v>
+        <v>0.4145122042496683</v>
       </c>
     </row>
     <row r="13">
@@ -4227,19 +4227,19 @@
         <v>37225</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27160</v>
+        <v>26927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>50791</v>
+        <v>50203</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1148764254456926</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08381410238664092</v>
+        <v>0.08309539503944978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1567397083157961</v>
+        <v>0.1549267409355219</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -4248,19 +4248,19 @@
         <v>50549</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37967</v>
+        <v>38676</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63740</v>
+        <v>66014</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1482295629600894</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.111335032378144</v>
+        <v>0.1134140107731778</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.186909129408258</v>
+        <v>0.1935791730938148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -4269,19 +4269,19 @@
         <v>87774</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>69945</v>
+        <v>69847</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106771</v>
+        <v>105958</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1319786184227116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1051706510874047</v>
+        <v>0.105022518113722</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1605412889668048</v>
+        <v>0.1593202665008807</v>
       </c>
     </row>
     <row r="14">
@@ -4298,19 +4298,19 @@
         <v>202473</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185492</v>
+        <v>182015</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>219525</v>
+        <v>218784</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6248286817165521</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5724259860878571</v>
+        <v>0.561693661891545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6774492131316329</v>
+        <v>0.6751621544783792</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -4319,19 +4319,19 @@
         <v>124649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>106065</v>
+        <v>106301</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>144962</v>
+        <v>144344</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3655178163030191</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3110215114040948</v>
+        <v>0.3117134855736904</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4250846288061058</v>
+        <v>0.4232708045203123</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>318</v>
@@ -4340,19 +4340,19 @@
         <v>327122</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>301369</v>
+        <v>299319</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>353960</v>
+        <v>352060</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4918641454888645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4531418282771244</v>
+        <v>0.4500592073976672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5322176831492251</v>
+        <v>0.5293609953065183</v>
       </c>
     </row>
     <row r="15">
@@ -4444,19 +4444,19 @@
         <v>99041</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82156</v>
+        <v>82492</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117471</v>
+        <v>117836</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2648278100785182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2196779201625846</v>
+        <v>0.2205764444168764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3141087115258343</v>
+        <v>0.3150852345852427</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -4465,19 +4465,19 @@
         <v>224807</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>203710</v>
+        <v>203896</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>244187</v>
+        <v>244443</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5779837295624055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5237432417180976</v>
+        <v>0.5242191923401475</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6278087229621037</v>
+        <v>0.6284663566048959</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>306</v>
@@ -4486,19 +4486,19 @@
         <v>323848</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>295016</v>
+        <v>296692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>349746</v>
+        <v>351125</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4244778567535462</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3866868988956526</v>
+        <v>0.3888840785567192</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4584226120958772</v>
+        <v>0.4602304999430429</v>
       </c>
     </row>
     <row r="17">
@@ -4515,19 +4515,19 @@
         <v>83912</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68942</v>
+        <v>68018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100831</v>
+        <v>100073</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2243750954550177</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1843456752572014</v>
+        <v>0.181874512909706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2696157973614556</v>
+        <v>0.2675876698170394</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -4536,19 +4536,19 @@
         <v>76801</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>61393</v>
+        <v>62914</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>93906</v>
+        <v>95234</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1974579862552799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1578424110321036</v>
+        <v>0.1617537884409388</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2414327342957668</v>
+        <v>0.2448481805167382</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>153</v>
@@ -4557,19 +4557,19 @@
         <v>160714</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139156</v>
+        <v>138491</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>183798</v>
+        <v>185455</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2106524816619354</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1823956741064543</v>
+        <v>0.181523947870015</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2409101803318558</v>
+        <v>0.2430817945658034</v>
       </c>
     </row>
     <row r="18">
@@ -4586,19 +4586,19 @@
         <v>191029</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>171963</v>
+        <v>171161</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>210819</v>
+        <v>211282</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.510797094466464</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4598159612851425</v>
+        <v>0.4576710203969843</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5637150200023371</v>
+        <v>0.5649525558223177</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -4607,19 +4607,19 @@
         <v>87342</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>71604</v>
+        <v>71570</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>106239</v>
+        <v>105254</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2245582841823146</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1840952966835634</v>
+        <v>0.18400719423348</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2731415785725105</v>
+        <v>0.2706099854471143</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>256</v>
@@ -4628,19 +4628,19 @@
         <v>278371</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>250748</v>
+        <v>253389</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>307521</v>
+        <v>306412</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3648696615845184</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3286633459422617</v>
+        <v>0.3321254909892677</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4030767981616173</v>
+        <v>0.4016232420460799</v>
       </c>
     </row>
     <row r="19">
@@ -4732,19 +4732,19 @@
         <v>47226</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34654</v>
+        <v>35675</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>61023</v>
+        <v>62085</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2221167087139483</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1629876759788461</v>
+        <v>0.1677884554845071</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.287006658602927</v>
+        <v>0.292002172783406</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -4753,19 +4753,19 @@
         <v>126438</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112534</v>
+        <v>111929</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>143034</v>
+        <v>141946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5757899117261024</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5124704645677782</v>
+        <v>0.509713915409746</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6513650099387924</v>
+        <v>0.6464109481134626</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>164</v>
@@ -4774,19 +4774,19 @@
         <v>173664</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>152822</v>
+        <v>155483</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>194923</v>
+        <v>195729</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4018062692021145</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.353584224677232</v>
+        <v>0.3597392742260268</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4509928593432238</v>
+        <v>0.4528566850299381</v>
       </c>
     </row>
     <row r="21">
@@ -4803,19 +4803,19 @@
         <v>37184</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27573</v>
+        <v>27617</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50582</v>
+        <v>49886</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1748870511081649</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1296852065083164</v>
+        <v>0.1298914054410599</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2378996001664992</v>
+        <v>0.234626762116341</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>39</v>
@@ -4824,19 +4824,19 @@
         <v>39044</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>27927</v>
+        <v>29368</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50465</v>
+        <v>51640</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1778019367322758</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1271789047528715</v>
+        <v>0.1337379751332566</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2298119857313337</v>
+        <v>0.2351643073255321</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>75</v>
@@ -4845,19 +4845,19 @@
         <v>76228</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>62419</v>
+        <v>61145</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>93063</v>
+        <v>90937</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1763680072909034</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1444191959597114</v>
+        <v>0.1414701948921663</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2153189249564663</v>
+        <v>0.2104004772682802</v>
       </c>
     </row>
     <row r="22">
@@ -4874,19 +4874,19 @@
         <v>128208</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>111753</v>
+        <v>111505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142892</v>
+        <v>142447</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6029962401778868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5256058085961106</v>
+        <v>0.5244361573757815</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6720600374952889</v>
+        <v>0.6699686366517926</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -4895,19 +4895,19 @@
         <v>54109</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42078</v>
+        <v>41358</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67767</v>
+        <v>67292</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2464081515416218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1916176479985192</v>
+        <v>0.1883397528748602</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3086070341289182</v>
+        <v>0.3064422900272995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>169</v>
@@ -4916,19 +4916,19 @@
         <v>182317</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>163262</v>
+        <v>161374</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>207166</v>
+        <v>203592</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4218257235069821</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3777386889966351</v>
+        <v>0.3733701853307597</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4793195012056681</v>
+        <v>0.4710494383639213</v>
       </c>
     </row>
     <row r="23">
@@ -5020,19 +5020,19 @@
         <v>55298</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41376</v>
+        <v>42987</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>69475</v>
+        <v>69964</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2018318352212699</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1510174103318503</v>
+        <v>0.1568991945441373</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2535773856077986</v>
+        <v>0.2553602643146686</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>135</v>
@@ -5041,19 +5041,19 @@
         <v>141484</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>125563</v>
+        <v>126163</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>158525</v>
+        <v>157200</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5052457137849999</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4483902036471711</v>
+        <v>0.4505337728092004</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5660992029052752</v>
+        <v>0.5613651075927634</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>188</v>
@@ -5062,19 +5062,19 @@
         <v>196783</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>174890</v>
+        <v>173555</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>219864</v>
+        <v>220526</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3551954645174424</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3156795638325133</v>
+        <v>0.3132689098527062</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3968585760010416</v>
+        <v>0.3980522542524444</v>
       </c>
     </row>
     <row r="25">
@@ -5091,19 +5091,19 @@
         <v>33477</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23219</v>
+        <v>23188</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46025</v>
+        <v>45597</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1221887137150932</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08474504620588226</v>
+        <v>0.08463373596608598</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1679845153875899</v>
+        <v>0.1664240565506317</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -5112,19 +5112,19 @@
         <v>43313</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32144</v>
+        <v>31293</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>55674</v>
+        <v>56186</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1546737931091469</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1147885748678524</v>
+        <v>0.1117483944702086</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1988124728104114</v>
+        <v>0.2006421771336921</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -5133,19 +5133,19 @@
         <v>76791</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>61062</v>
+        <v>61477</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95530</v>
+        <v>93809</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1386086273242854</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1102182977748058</v>
+        <v>0.1109661694056974</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1724326669945246</v>
+        <v>0.1693274020323534</v>
       </c>
     </row>
     <row r="26">
@@ -5162,19 +5162,19 @@
         <v>185206</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>168699</v>
+        <v>167342</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>200726</v>
+        <v>200328</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6759794510636369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6157308955453228</v>
+        <v>0.6107790790599028</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7326279400543954</v>
+        <v>0.7311757516397184</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -5183,19 +5183,19 @@
         <v>95233</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>80414</v>
+        <v>80583</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>112606</v>
+        <v>111430</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3400804931058531</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2871615795713537</v>
+        <v>0.2877662992544488</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4021185675616022</v>
+        <v>0.3979214216836661</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>269</v>
@@ -5204,19 +5204,19 @@
         <v>280439</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>257910</v>
+        <v>258745</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>305626</v>
+        <v>307088</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5061959081582722</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4655322720894715</v>
+        <v>0.467038022546248</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5516595746838938</v>
+        <v>0.5542978725233608</v>
       </c>
     </row>
     <row r="27">
@@ -5308,19 +5308,19 @@
         <v>156079</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>134849</v>
+        <v>134848</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>179820</v>
+        <v>181228</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.235489275915753</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2034565739853204</v>
+        <v>0.2034549828530212</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2713085094765529</v>
+        <v>0.2734325403083632</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>336</v>
@@ -5329,19 +5329,19 @@
         <v>369232</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>341836</v>
+        <v>342806</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>395218</v>
+        <v>397774</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5321466170220361</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4926631541750314</v>
+        <v>0.494060985330006</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5695988410703282</v>
+        <v>0.5732834394756726</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>480</v>
@@ -5350,19 +5350,19 @@
         <v>525311</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>489339</v>
+        <v>490180</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>566677</v>
+        <v>561603</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3872144382101579</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3606989086573906</v>
+        <v>0.3613190671716769</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4177057573386191</v>
+        <v>0.4139654653356579</v>
       </c>
     </row>
     <row r="29">
@@ -5379,19 +5379,19 @@
         <v>109239</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>91596</v>
+        <v>89336</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>132437</v>
+        <v>127810</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1648178099708043</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1381983234891921</v>
+        <v>0.1347887762969074</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1998178147110515</v>
+        <v>0.1928376446198968</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>105</v>
@@ -5400,19 +5400,19 @@
         <v>110096</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>92144</v>
+        <v>92639</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>128371</v>
+        <v>131964</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1586735649947217</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1328002911200892</v>
+        <v>0.1335133906574293</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1850111542199687</v>
+        <v>0.1901900405065309</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>204</v>
@@ -5421,19 +5421,19 @@
         <v>219335</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>190924</v>
+        <v>191706</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>249798</v>
+        <v>247102</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1616753407411663</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1407329019227898</v>
+        <v>0.141309543589057</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.184129685706078</v>
+        <v>0.1821421650673718</v>
       </c>
     </row>
     <row r="30">
@@ -5450,19 +5450,19 @@
         <v>397469</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>370626</v>
+        <v>372649</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>422713</v>
+        <v>426732</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5996929141134426</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5591919159071177</v>
+        <v>0.5622451319200638</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6377803857972371</v>
+        <v>0.643843664143151</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>195</v>
@@ -5471,19 +5471,19 @@
         <v>214525</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>190042</v>
+        <v>186840</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>240981</v>
+        <v>240394</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3091798179832422</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2738937751160947</v>
+        <v>0.26927858248843</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3473085686325525</v>
+        <v>0.3464618385203565</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>570</v>
@@ -5492,19 +5492,19 @@
         <v>611995</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>571115</v>
+        <v>571773</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>650921</v>
+        <v>648817</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4511102210486758</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4209769190406731</v>
+        <v>0.4214620204142474</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4798031369201756</v>
+        <v>0.4782527817839826</v>
       </c>
     </row>
     <row r="31">
@@ -5596,19 +5596,19 @@
         <v>275745</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>251104</v>
+        <v>250767</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>303320</v>
+        <v>304044</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3539282579853167</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3223009856300156</v>
+        <v>0.3218680299922433</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3893213727831502</v>
+        <v>0.3902516981768875</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>514</v>
@@ -5617,19 +5617,19 @@
         <v>559751</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>533287</v>
+        <v>530496</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>586759</v>
+        <v>586964</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6810573722814558</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.648858751346855</v>
+        <v>0.6454626539483296</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.713918625804657</v>
+        <v>0.7141674990728376</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>771</v>
@@ -5638,19 +5638,19 @@
         <v>835496</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>790804</v>
+        <v>794244</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>874360</v>
+        <v>874560</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5218640975295632</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4939488191331839</v>
+        <v>0.4960979549207028</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5461391984173702</v>
+        <v>0.5462642455014687</v>
       </c>
     </row>
     <row r="33">
@@ -5667,19 +5667,19 @@
         <v>48616</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>35201</v>
+        <v>37181</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>64216</v>
+        <v>64669</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0624002066423863</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04518224794302267</v>
+        <v>0.04772297389299419</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08242289656369954</v>
+        <v>0.08300459639975338</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>42</v>
@@ -5688,19 +5688,19 @@
         <v>45109</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>32744</v>
+        <v>32630</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>59051</v>
+        <v>59276</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05488433935968725</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.03984048700980195</v>
+        <v>0.03970103225248825</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07184780671261752</v>
+        <v>0.07212173252515294</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>86</v>
@@ -5709,19 +5709,19 @@
         <v>93724</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>75288</v>
+        <v>75026</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>115136</v>
+        <v>113877</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05854184177401024</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04702621387798598</v>
+        <v>0.04686231738013143</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07191600743148392</v>
+        <v>0.07112947852709905</v>
       </c>
     </row>
     <row r="34">
@@ -5738,19 +5738,19 @@
         <v>454737</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>427949</v>
+        <v>427393</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>483678</v>
+        <v>482921</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.583671535372297</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5492871635690304</v>
+        <v>0.548574434061853</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6208179463579349</v>
+        <v>0.6198457481571434</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>199</v>
@@ -5759,19 +5759,19 @@
         <v>217026</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>190975</v>
+        <v>191920</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>244218</v>
+        <v>243544</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.264058288358857</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2323620097690418</v>
+        <v>0.2335116368420078</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2971442802388625</v>
+        <v>0.2963233660529717</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>615</v>
@@ -5780,19 +5780,19 @@
         <v>671763</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>629929</v>
+        <v>632574</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>716138</v>
+        <v>716206</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4195940606964265</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3934640965896088</v>
+        <v>0.3951157800687479</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4473115261360757</v>
+        <v>0.4473541009659973</v>
       </c>
     </row>
     <row r="35">
@@ -5884,19 +5884,19 @@
         <v>943722</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>889143</v>
+        <v>889383</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>995222</v>
+        <v>1001333</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2753963238786427</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.25946909978702</v>
+        <v>0.2595391610727318</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.290424867095799</v>
+        <v>0.2922081136069746</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1878</v>
@@ -5905,19 +5905,19 @@
         <v>2025620</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1962956</v>
+        <v>1960161</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>2082326</v>
+        <v>2082687</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5695797847922034</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5519593694765093</v>
+        <v>0.5511734669605987</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5855247218909839</v>
+        <v>0.5856263345447033</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2750</v>
@@ -5926,19 +5926,19 @@
         <v>2969342</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>2875143</v>
+        <v>2878339</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3053052</v>
+        <v>3057948</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4252171344078009</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.4117275456360175</v>
+        <v>0.4121852268518694</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4372045923590513</v>
+        <v>0.437905648302558</v>
       </c>
     </row>
     <row r="37">
@@ -5955,19 +5955,19 @@
         <v>438489</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>400808</v>
+        <v>400525</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>480835</v>
+        <v>480079</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1279596163700557</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1169633369961404</v>
+        <v>0.1168809028230508</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1403169612768322</v>
+        <v>0.1400962144051479</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>450</v>
@@ -5976,19 +5976,19 @@
         <v>476784</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>437770</v>
+        <v>437286</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>522539</v>
+        <v>519817</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1340657630957602</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.12309553231788</v>
+        <v>0.1229595384320199</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1469317162447122</v>
+        <v>0.1461662858250718</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>864</v>
@@ -5997,19 +5997,19 @@
         <v>915273</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>854746</v>
+        <v>863648</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>973166</v>
+        <v>979589</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1310693352128965</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1224016727800065</v>
+        <v>0.1236764984729321</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1393597517235922</v>
+        <v>0.1402796268912027</v>
       </c>
     </row>
     <row r="38">
@@ -6026,19 +6026,19 @@
         <v>2044567</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1986714</v>
+        <v>1980559</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2104744</v>
+        <v>2102125</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5966440597513015</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5797613428813038</v>
+        <v>0.5779652463914157</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6142046269486326</v>
+        <v>0.6134406279306226</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>968</v>
@@ -6047,19 +6047,19 @@
         <v>1053937</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>998445</v>
+        <v>1003818</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1111665</v>
+        <v>1112148</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2963544521120364</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2807506788307395</v>
+        <v>0.2822614337879117</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3125867668061417</v>
+        <v>0.3127224894696961</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2891</v>
@@ -6068,19 +6068,19 @@
         <v>3098505</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3012449</v>
+        <v>3011427</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3189120</v>
+        <v>3185702</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4437135303793026</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4313900566718109</v>
+        <v>0.4312437422799805</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.456689816400249</v>
+        <v>0.4562003215927979</v>
       </c>
     </row>
     <row r="39">
@@ -6416,19 +6416,19 @@
         <v>53972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40004</v>
+        <v>40793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>68619</v>
+        <v>68962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1837292003924786</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1361776340686253</v>
+        <v>0.1388632188927195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2335871810034607</v>
+        <v>0.2347547753798337</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>102</v>
@@ -6437,19 +6437,19 @@
         <v>107598</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90702</v>
+        <v>91513</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124688</v>
+        <v>122763</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.373986518284186</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3152602433234264</v>
+        <v>0.318080204134025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4333898883943855</v>
+        <v>0.4266981635588961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>148</v>
@@ -6458,19 +6458,19 @@
         <v>161570</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>138864</v>
+        <v>140214</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>185591</v>
+        <v>183011</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2778670265520352</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2388176577076297</v>
+        <v>0.2411384627540782</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3191784996734706</v>
+        <v>0.3147405510594772</v>
       </c>
     </row>
     <row r="5">
@@ -6487,19 +6487,19 @@
         <v>61116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48723</v>
+        <v>48270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>78003</v>
+        <v>77758</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2080468871819013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1658580526036511</v>
+        <v>0.1643174005157736</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.26553159000697</v>
+        <v>0.2646980980676991</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -6508,19 +6508,19 @@
         <v>73061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58260</v>
+        <v>58419</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>89256</v>
+        <v>88509</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2539448978047835</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2024978304683976</v>
+        <v>0.2030508895860791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3102336882432193</v>
+        <v>0.3076386662719431</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>124</v>
@@ -6529,19 +6529,19 @@
         <v>134177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113457</v>
+        <v>114455</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>157172</v>
+        <v>157047</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2307568622460178</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1951225306353989</v>
+        <v>0.1968383473664645</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2703024692183595</v>
+        <v>0.2700872975546893</v>
       </c>
     </row>
     <row r="6">
@@ -6558,19 +6558,19 @@
         <v>178672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160746</v>
+        <v>160241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>195615</v>
+        <v>195051</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6082239124256201</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5472000619635572</v>
+        <v>0.5454794237300112</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6658971386190349</v>
+        <v>0.6639793357411896</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>105</v>
@@ -6579,19 +6579,19 @@
         <v>107046</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>89825</v>
+        <v>91543</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>122462</v>
+        <v>123025</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3720685839110305</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3122131015264535</v>
+        <v>0.318181913048629</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4256515212325555</v>
+        <v>0.4276093593590922</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>270</v>
@@ -6600,19 +6600,19 @@
         <v>285719</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>259114</v>
+        <v>261219</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>311634</v>
+        <v>308532</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.491376111201947</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4456215672469039</v>
+        <v>0.4492419766841923</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5359456321445926</v>
+        <v>0.5306097824700765</v>
       </c>
     </row>
     <row r="7">
@@ -6704,19 +6704,19 @@
         <v>102489</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>82779</v>
+        <v>84584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>120262</v>
+        <v>122693</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2039272339805153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1647093662943532</v>
+        <v>0.1683016005588606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2392920191132772</v>
+        <v>0.2441295033165115</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>245</v>
@@ -6725,19 +6725,19 @@
         <v>270903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>248468</v>
+        <v>247230</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>293939</v>
+        <v>294654</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5189755104811158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4759976071095863</v>
+        <v>0.4736261837197758</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5631077141279296</v>
+        <v>0.5644774676662182</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>339</v>
@@ -6746,19 +6746,19 @@
         <v>373391</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>341823</v>
+        <v>341980</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>406499</v>
+        <v>406908</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3644370926431737</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3336257123924901</v>
+        <v>0.3337789954047606</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3967504950803422</v>
+        <v>0.3971502171914386</v>
       </c>
     </row>
     <row r="9">
@@ -6775,19 +6775,19 @@
         <v>132348</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>113925</v>
+        <v>114077</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>152959</v>
+        <v>153803</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.263340791114083</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2266831769216091</v>
+        <v>0.2269852651888462</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3043497617232681</v>
+        <v>0.3060302466539789</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>141</v>
@@ -6796,19 +6796,19 @@
         <v>148834</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>127869</v>
+        <v>128328</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>171517</v>
+        <v>171156</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.285124628786766</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.244962103237768</v>
+        <v>0.2458408542553452</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3285794635821795</v>
+        <v>0.3278887479997069</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>267</v>
@@ -6817,19 +6817,19 @@
         <v>281182</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>250654</v>
+        <v>253954</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>316034</v>
+        <v>308938</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2744391559260104</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2446433216585119</v>
+        <v>0.2478636719140114</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3084552760028724</v>
+        <v>0.3015294753392094</v>
       </c>
     </row>
     <row r="10">
@@ -6846,19 +6846,19 @@
         <v>267738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>243853</v>
+        <v>245587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>292112</v>
+        <v>291394</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5327319749054017</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4852075654524304</v>
+        <v>0.4886569800908057</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5812311901702482</v>
+        <v>0.5798018057168717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -6867,19 +6867,19 @@
         <v>102259</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>83418</v>
+        <v>85488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>120721</v>
+        <v>121080</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1958998607321183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1598058939102219</v>
+        <v>0.1637715895860123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2312680201963528</v>
+        <v>0.2319561871060072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>352</v>
@@ -6888,19 +6888,19 @@
         <v>369997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>336863</v>
+        <v>339561</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>401407</v>
+        <v>400347</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3611237514308159</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3287850907661072</v>
+        <v>0.3314179819840554</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3917810085053832</v>
+        <v>0.3907461139048369</v>
       </c>
     </row>
     <row r="11">
@@ -6992,19 +6992,19 @@
         <v>14668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8433</v>
+        <v>8375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23263</v>
+        <v>23459</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0461837311391707</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02655157039794218</v>
+        <v>0.02636902485209223</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07324574747906042</v>
+        <v>0.07386219767198517</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -7013,19 +7013,19 @@
         <v>89206</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>73535</v>
+        <v>72684</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>108310</v>
+        <v>106188</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2652493950698601</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2186528354347153</v>
+        <v>0.2161216786949068</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3220546474311611</v>
+        <v>0.3157467063216757</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>99</v>
@@ -7034,19 +7034,19 @@
         <v>103874</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>85737</v>
+        <v>85553</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>123884</v>
+        <v>123696</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1588501559827249</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1311144216724242</v>
+        <v>0.1308331948244889</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1894512978671173</v>
+        <v>0.1891634978124621</v>
       </c>
     </row>
     <row r="13">
@@ -7063,19 +7063,19 @@
         <v>96849</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>82331</v>
+        <v>80919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114166</v>
+        <v>111651</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3049393041689784</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2592285998302478</v>
+        <v>0.2547815753618515</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3594641656804861</v>
+        <v>0.3515462611160971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -7084,19 +7084,19 @@
         <v>124626</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105997</v>
+        <v>108304</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143083</v>
+        <v>144400</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3705687622151323</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3151772596771256</v>
+        <v>0.3220382519274738</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4254500776524046</v>
+        <v>0.4293665834908372</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>227</v>
@@ -7105,19 +7105,19 @@
         <v>221475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>198889</v>
+        <v>199966</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246108</v>
+        <v>246157</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3386928202143759</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3041533928614357</v>
+        <v>0.3057997835441785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3763644400714138</v>
+        <v>0.3764393495956779</v>
       </c>
     </row>
     <row r="14">
@@ -7134,19 +7134,19 @@
         <v>206084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189755</v>
+        <v>189440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>221814</v>
+        <v>220771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.648876964691851</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5974622468136545</v>
+        <v>0.5964728857217529</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6984038044131101</v>
+        <v>0.6951212393327106</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -7155,19 +7155,19 @@
         <v>122478</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>105931</v>
+        <v>104762</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>139823</v>
+        <v>139476</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3641818427150076</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3149809733269565</v>
+        <v>0.3115047822390791</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4157562442988373</v>
+        <v>0.4147263918997921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>340</v>
@@ -7176,19 +7176,19 @@
         <v>328562</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>303415</v>
+        <v>305028</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>353022</v>
+        <v>355167</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5024570238028992</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4640016168359611</v>
+        <v>0.4664683072725359</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5398630860004772</v>
+        <v>0.543143849192964</v>
       </c>
     </row>
     <row r="15">
@@ -7280,19 +7280,19 @@
         <v>50971</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38962</v>
+        <v>37861</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65599</v>
+        <v>64488</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1377741304575775</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1053136324042389</v>
+        <v>0.1023375034794262</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.177312938682573</v>
+        <v>0.1743094477554169</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>105</v>
@@ -7301,19 +7301,19 @@
         <v>118734</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101570</v>
+        <v>101065</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139110</v>
+        <v>140713</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3065829628920781</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2622641609593913</v>
+        <v>0.2609577525863199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3591947396324587</v>
+        <v>0.363334955422316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -7322,19 +7322,19 @@
         <v>169706</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>147939</v>
+        <v>145911</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>193824</v>
+        <v>193926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2241089608084717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1953646718974986</v>
+        <v>0.1926856027273328</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2559581449076192</v>
+        <v>0.2560931875915071</v>
       </c>
     </row>
     <row r="17">
@@ -7351,19 +7351,19 @@
         <v>85584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70704</v>
+        <v>70090</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102359</v>
+        <v>103203</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2313296976071284</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1911118341252039</v>
+        <v>0.189450566549807</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2766722507348828</v>
+        <v>0.278954063548609</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -7372,19 +7372,19 @@
         <v>115752</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96368</v>
+        <v>97691</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131241</v>
+        <v>134980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2988814813582805</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2488309390650183</v>
+        <v>0.2522465143206258</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3388764186534046</v>
+        <v>0.3485294488427522</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>196</v>
@@ -7393,19 +7393,19 @@
         <v>201335</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177775</v>
+        <v>178550</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>225759</v>
+        <v>227827</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2658780781980486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2347642416468558</v>
+        <v>0.2357879647575752</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2981309506167686</v>
+        <v>0.3008622709092365</v>
       </c>
     </row>
     <row r="18">
@@ -7422,19 +7422,19 @@
         <v>233409</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>215609</v>
+        <v>216157</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>251544</v>
+        <v>254013</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6308961719352941</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.582783179258063</v>
+        <v>0.5842642269870393</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6799154107500854</v>
+        <v>0.6865895191208368</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>141</v>
@@ -7443,19 +7443,19 @@
         <v>152797</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>133774</v>
+        <v>132881</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>172835</v>
+        <v>173477</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3945355557496414</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3454170627707641</v>
+        <v>0.3431096645552948</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4462753470634759</v>
+        <v>0.4479331760973342</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>362</v>
@@ -7464,19 +7464,19 @@
         <v>386206</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>358770</v>
+        <v>356723</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>413379</v>
+        <v>414615</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5100129609934796</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4737823852498975</v>
+        <v>0.471079215780118</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5458971051304694</v>
+        <v>0.5475292784213469</v>
       </c>
     </row>
     <row r="19">
@@ -7568,19 +7568,19 @@
         <v>19223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11957</v>
+        <v>12299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>29477</v>
+        <v>29340</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09100781263093433</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05660682165176418</v>
+        <v>0.05822948642288048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1395564944575221</v>
+        <v>0.1389052546797175</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -7589,19 +7589,19 @@
         <v>31038</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>22572</v>
+        <v>21912</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44117</v>
+        <v>43497</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1419957848267442</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1032624600869199</v>
+        <v>0.100242434020176</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.201828205522623</v>
+        <v>0.1989939516275197</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -7610,19 +7610,19 @@
         <v>50261</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37261</v>
+        <v>36926</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>65276</v>
+        <v>65891</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1169387118313145</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08669279385547901</v>
+        <v>0.08591276631648814</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1518734714980501</v>
+        <v>0.1533043624059944</v>
       </c>
     </row>
     <row r="21">
@@ -7639,19 +7639,19 @@
         <v>100821</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>85887</v>
+        <v>86753</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>116407</v>
+        <v>115637</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4773239318323358</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4066236703430401</v>
+        <v>0.4107219018190635</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5511160426155796</v>
+        <v>0.5474685307055642</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>154</v>
@@ -7660,19 +7660,19 @@
         <v>150074</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>136244</v>
+        <v>136219</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>162652</v>
+        <v>163667</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6865663225213355</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6232935302665329</v>
+        <v>0.6231791181931684</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.7441059701248295</v>
+        <v>0.748748022301885</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>256</v>
@@ -7681,19 +7681,19 @@
         <v>250895</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>231237</v>
+        <v>229291</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>271099</v>
+        <v>270672</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5837381136037951</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5380014708863951</v>
+        <v>0.5334733398250675</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6307454970516537</v>
+        <v>0.6297512203877251</v>
       </c>
     </row>
     <row r="22">
@@ -7710,19 +7710,19 @@
         <v>91177</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77253</v>
+        <v>77910</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106464</v>
+        <v>106845</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4316682555367299</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3657453176178271</v>
+        <v>0.3688571458307601</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5040417288996246</v>
+        <v>0.5058461404010903</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -7731,19 +7731,19 @@
         <v>37474</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28154</v>
+        <v>27700</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48576</v>
+        <v>49778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1714378926519204</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1288017649879684</v>
+        <v>0.1267248475997502</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.222226691867033</v>
+        <v>0.2277255130814713</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>131</v>
@@ -7752,19 +7752,19 @@
         <v>128651</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110727</v>
+        <v>110582</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>147207</v>
+        <v>149570</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2993231745648904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.257619892484309</v>
+        <v>0.2572827519748341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.342495350193214</v>
+        <v>0.3479925237742028</v>
       </c>
     </row>
     <row r="23">
@@ -7856,19 +7856,19 @@
         <v>19272</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12075</v>
+        <v>12279</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29357</v>
+        <v>29450</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07324160574518028</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04589148314169762</v>
+        <v>0.04666810044473213</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1115722930741643</v>
+        <v>0.1119255815198828</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -7877,19 +7877,19 @@
         <v>51928</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38962</v>
+        <v>39112</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64400</v>
+        <v>66722</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1901341810518488</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1426587215083711</v>
+        <v>0.1432066355305441</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2357993237427991</v>
+        <v>0.2443011525537234</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -7898,19 +7898,19 @@
         <v>71200</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>54843</v>
+        <v>57500</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>87700</v>
+        <v>89270</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1327769534426939</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1022741959739702</v>
+        <v>0.1072293563347303</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1635459892786432</v>
+        <v>0.1664754045060299</v>
       </c>
     </row>
     <row r="25">
@@ -7927,19 +7927,19 @@
         <v>54799</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43000</v>
+        <v>42936</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69311</v>
+        <v>68613</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2082626934993171</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1634204681304581</v>
+        <v>0.1631794795846014</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.263417083496524</v>
+        <v>0.2607651070373013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>110</v>
@@ -7948,19 +7948,19 @@
         <v>115585</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>98629</v>
+        <v>96996</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>133715</v>
+        <v>132602</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4232118167212855</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3611279616001335</v>
+        <v>0.3551459215990688</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4895940070172373</v>
+        <v>0.4855153519660268</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>165</v>
@@ -7969,19 +7969,19 @@
         <v>170384</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>147344</v>
+        <v>149004</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>190604</v>
+        <v>191441</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3177398844562481</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2747735535447823</v>
+        <v>0.2778689921448462</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3554468374739406</v>
+        <v>0.3570076792765421</v>
       </c>
     </row>
     <row r="26">
@@ -7998,19 +7998,19 @@
         <v>189053</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>173929</v>
+        <v>173038</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>202827</v>
+        <v>203718</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7184957007555026</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6610164276267959</v>
+        <v>0.6576325266785861</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7708439092411451</v>
+        <v>0.7742317095298906</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>105</v>
@@ -8019,19 +8019,19 @@
         <v>105601</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>90789</v>
+        <v>89489</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>121497</v>
+        <v>121425</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3866540022268657</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3324191075568382</v>
+        <v>0.3276609068699616</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4448580932962319</v>
+        <v>0.4445935854257688</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>291</v>
@@ -8040,19 +8040,19 @@
         <v>294654</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>272722</v>
+        <v>273366</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>319946</v>
+        <v>319681</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5494831621010581</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5085839196489049</v>
+        <v>0.5097851019175909</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5966490210394311</v>
+        <v>0.5961549455275731</v>
       </c>
     </row>
     <row r="27">
@@ -8144,19 +8144,19 @@
         <v>84039</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>66709</v>
+        <v>67174</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101647</v>
+        <v>104047</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1282130285966336</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1017732609444405</v>
+        <v>0.1024835207552046</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1550763304296089</v>
+        <v>0.1587385983705712</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>193</v>
@@ -8165,19 +8165,19 @@
         <v>213073</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>187248</v>
+        <v>187340</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>238137</v>
+        <v>238065</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3091710839004593</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2716980923562454</v>
+        <v>0.2718314694752772</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3455382565855565</v>
+        <v>0.3454339723975056</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>267</v>
@@ -8186,19 +8186,19 @@
         <v>297112</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>264706</v>
+        <v>266612</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>330864</v>
+        <v>328203</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2209605485834287</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1968602087540605</v>
+        <v>0.198277524630749</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2460616591326444</v>
+        <v>0.2440822921166644</v>
       </c>
     </row>
     <row r="29">
@@ -8215,19 +8215,19 @@
         <v>186714</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>164471</v>
+        <v>163397</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>211579</v>
+        <v>211522</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2848584583106704</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2509231339044782</v>
+        <v>0.2492845404238385</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3227924718821886</v>
+        <v>0.3227067929378579</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>207</v>
@@ -8236,19 +8236,19 @@
         <v>215895</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>192338</v>
+        <v>192410</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>242519</v>
+        <v>241315</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3132646962055774</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2790843884195454</v>
+        <v>0.2791881407386637</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3518965016501714</v>
+        <v>0.3501498059062118</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>378</v>
@@ -8257,19 +8257,19 @@
         <v>402609</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>370060</v>
+        <v>369852</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>439283</v>
+        <v>438716</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2994176781944389</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2752110843792205</v>
+        <v>0.2750566402535983</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3266920995714748</v>
+        <v>0.3262701218025216</v>
       </c>
     </row>
     <row r="30">
@@ -8286,19 +8286,19 @@
         <v>384710</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>358279</v>
+        <v>358410</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>410045</v>
+        <v>409685</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5869285130926959</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.546603713793008</v>
+        <v>0.5468043495795022</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6255813878465073</v>
+        <v>0.6250312425028035</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>244</v>
@@ -8307,19 +8307,19 @@
         <v>260208</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>236101</v>
+        <v>235970</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>288267</v>
+        <v>288308</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3775642198939633</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3425841823880345</v>
+        <v>0.3423951048145622</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4182771766482861</v>
+        <v>0.418337137698108</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>578</v>
@@ -8328,19 +8328,19 @@
         <v>644918</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>603356</v>
+        <v>610319</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>682761</v>
+        <v>682649</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4796217732221323</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4487124647997603</v>
+        <v>0.4538908000364591</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5077649876765724</v>
+        <v>0.5076819730080737</v>
       </c>
     </row>
     <row r="31">
@@ -8432,19 +8432,19 @@
         <v>86874</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>70852</v>
+        <v>70243</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>105043</v>
+        <v>106618</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.111579422836622</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09100084372000082</v>
+        <v>0.0902195958703564</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1349158244432365</v>
+        <v>0.1369381086452034</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>217</v>
@@ -8453,19 +8453,19 @@
         <v>239450</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>213742</v>
+        <v>213870</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>265803</v>
+        <v>266340</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.290649771805937</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2594451837670789</v>
+        <v>0.2596002292248112</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3226375466320901</v>
+        <v>0.3232890179854988</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>301</v>
@@ -8474,19 +8474,19 @@
         <v>326324</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>293043</v>
+        <v>292694</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>358719</v>
+        <v>360096</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2036435357067383</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1828744319963443</v>
+        <v>0.1826569723729965</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2238601196760453</v>
+        <v>0.2247190406466594</v>
       </c>
     </row>
     <row r="33">
@@ -8503,19 +8503,19 @@
         <v>235283</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>211863</v>
+        <v>208831</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>263835</v>
+        <v>259800</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3021943106429058</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2721138839300239</v>
+        <v>0.2682188160622823</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3388657168814285</v>
+        <v>0.3336833925839727</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>292</v>
@@ -8524,19 +8524,19 @@
         <v>319126</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>291198</v>
+        <v>293252</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>347568</v>
+        <v>350632</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3873624660827104</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.35346230035653</v>
+        <v>0.3559559179475192</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4218857836981363</v>
+        <v>0.4256052008490007</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>525</v>
@@ -8545,19 +8545,19 @@
         <v>554410</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>516426</v>
+        <v>514403</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>594091</v>
+        <v>591214</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.3459811839051753</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3222774741658406</v>
+        <v>0.3210146872278829</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3707446718013312</v>
+        <v>0.3689492623231505</v>
       </c>
     </row>
     <row r="34">
@@ -8574,19 +8574,19 @@
         <v>456426</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>424961</v>
+        <v>430995</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>481686</v>
+        <v>486508</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5862262665204723</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5458134917752988</v>
+        <v>0.553563845494627</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6186704803981291</v>
+        <v>0.6248639206438538</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>244</v>
@@ -8595,19 +8595,19 @@
         <v>265268</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>238119</v>
+        <v>238727</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>292552</v>
+        <v>290840</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3219877621113527</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2890345252449891</v>
+        <v>0.2897726584775153</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3551055030147612</v>
+        <v>0.353027427651434</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>677</v>
@@ -8616,19 +8616,19 @@
         <v>721694</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>678141</v>
+        <v>682961</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>763715</v>
+        <v>769340</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4503752803880863</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4231959471793247</v>
+        <v>0.4262040434858292</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.476598697295442</v>
+        <v>0.4801091787215885</v>
       </c>
     </row>
     <row r="35">
@@ -8720,19 +8720,19 @@
         <v>431508</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>391511</v>
+        <v>392266</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>470454</v>
+        <v>472781</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.127202445806949</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1154119528552291</v>
+        <v>0.1156345300804741</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1386832011436724</v>
+        <v>0.1393691495385752</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1023</v>
@@ -8741,19 +8741,19 @@
         <v>1121931</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1066305</v>
+        <v>1069494</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1175985</v>
+        <v>1179864</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3171075182799169</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3013853089616687</v>
+        <v>0.3022865401995213</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3323857067032592</v>
+        <v>0.33348203961591</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1422</v>
@@ -8762,19 +8762,19 @@
         <v>1553439</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1480823</v>
+        <v>1484724</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1628590</v>
+        <v>1632276</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2241515225702431</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2136735579339487</v>
+        <v>0.2142363841044549</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2349954002686149</v>
+        <v>0.2355271988165837</v>
       </c>
     </row>
     <row r="37">
@@ -8791,19 +8791,19 @@
         <v>953515</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>897164</v>
+        <v>901096</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1001820</v>
+        <v>1008097</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2810827045943088</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.264471409937839</v>
+        <v>0.2656305543019788</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2953224954053901</v>
+        <v>0.2971728506949187</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1207</v>
@@ -8812,19 +8812,19 @@
         <v>1262953</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1202943</v>
+        <v>1200876</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1321628</v>
+        <v>1319418</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.356966624611562</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3400050317893346</v>
+        <v>0.339420956489785</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3735508208126688</v>
+        <v>0.372926255721074</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2138</v>
@@ -8833,19 +8833,19 @@
         <v>2216468</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2129498</v>
+        <v>2142056</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2289802</v>
+        <v>2298130</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3198224596258631</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3072732512788464</v>
+        <v>0.3090853105615037</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3304041189038502</v>
+        <v>0.3316058609577559</v>
       </c>
     </row>
     <row r="38">
@@ -8862,19 +8862,19 @@
         <v>2007270</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1953772</v>
+        <v>1945274</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2068168</v>
+        <v>2065992</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5917148495987421</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5759444107287379</v>
+        <v>0.573439454879819</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6096669932340287</v>
+        <v>0.6090254850386954</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1102</v>
@@ -8883,19 +8883,19 @@
         <v>1153130</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1097642</v>
+        <v>1094901</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1208779</v>
+        <v>1213876</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3259258571085211</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3102422836390898</v>
+        <v>0.3094676576424689</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3416546922301981</v>
+        <v>0.3430953251051971</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3001</v>
@@ -8904,19 +8904,19 @@
         <v>3160400</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3082008</v>
+        <v>3076651</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3252214</v>
+        <v>3242891</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4560260178038938</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4447145143967174</v>
+        <v>0.4439416219361253</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4692742991935429</v>
+        <v>0.4679289715026476</v>
       </c>
     </row>
     <row r="39">
@@ -9252,19 +9252,19 @@
         <v>47028</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34357</v>
+        <v>34811</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61867</v>
+        <v>60747</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1474958473347479</v>
+        <v>0.147495847334748</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1077545902021823</v>
+        <v>0.109179060343174</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1940341576420791</v>
+        <v>0.1905207157485156</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -9273,19 +9273,19 @@
         <v>60159</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49311</v>
+        <v>48080</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>76384</v>
+        <v>73823</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1903389080764958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1560177981094684</v>
+        <v>0.1521217176252735</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2416748412271469</v>
+        <v>0.2335704978035271</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>137</v>
@@ -9294,19 +9294,19 @@
         <v>107187</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>89642</v>
+        <v>89480</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>126157</v>
+        <v>127589</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1688234248729549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1411889929678327</v>
+        <v>0.1409344923907962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1987020841392905</v>
+        <v>0.2009570124473813</v>
       </c>
     </row>
     <row r="5">
@@ -9323,19 +9323,19 @@
         <v>70624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54463</v>
+        <v>56084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88415</v>
+        <v>87350</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2214999525892785</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1708125938550314</v>
+        <v>0.1758975415913721</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2772989707157746</v>
+        <v>0.273956446173151</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -9344,19 +9344,19 @@
         <v>108672</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>95719</v>
+        <v>95488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>121485</v>
+        <v>121811</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3438337313782922</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3028486394930808</v>
+        <v>0.3021201485244907</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3843709128770828</v>
+        <v>0.3854045516430937</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>275</v>
@@ -9365,19 +9365,19 @@
         <v>179297</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>160268</v>
+        <v>160063</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>202874</v>
+        <v>202437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2823985697163728</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2524280926358081</v>
+        <v>0.2521048251895951</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3195343803403616</v>
+        <v>0.318845676552813</v>
       </c>
     </row>
     <row r="6">
@@ -9394,19 +9394,19 @@
         <v>201193</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>183981</v>
+        <v>182776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>219834</v>
+        <v>218590</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6310042000759736</v>
+        <v>0.6310042000759737</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5770232611256211</v>
+        <v>0.573245146230968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6894711537738408</v>
+        <v>0.6855691498142514</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>241</v>
@@ -9415,19 +9415,19 @@
         <v>147230</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>132871</v>
+        <v>132836</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>162647</v>
+        <v>160156</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.465827360545212</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4203961002039379</v>
+        <v>0.4202846048513889</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5146076958565812</v>
+        <v>0.5067257669999948</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>457</v>
@@ -9436,19 +9436,19 @@
         <v>348422</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>324064</v>
+        <v>324310</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>371209</v>
+        <v>373534</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5487780054106723</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5104127754262161</v>
+        <v>0.510799240670198</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5846680518944877</v>
+        <v>0.588330216732854</v>
       </c>
     </row>
     <row r="7">
@@ -9540,19 +9540,19 @@
         <v>86060</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>66709</v>
+        <v>68951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108578</v>
+        <v>109736</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1628733091257042</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.126250462851316</v>
+        <v>0.1304927412454599</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2054878842840562</v>
+        <v>0.2076794205111936</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>298</v>
@@ -9561,19 +9561,19 @@
         <v>213250</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>192908</v>
+        <v>194720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>233354</v>
+        <v>233909</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.390652153011903</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3533867138840486</v>
+        <v>0.3567058394943921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4274799426281972</v>
+        <v>0.4284962281589134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>366</v>
@@ -9582,19 +9582,19 @@
         <v>299311</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>271443</v>
+        <v>271513</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>331705</v>
+        <v>329354</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2786173577639199</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2526765298759333</v>
+        <v>0.2527416805263418</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3087723550956805</v>
+        <v>0.3065833475056932</v>
       </c>
     </row>
     <row r="9">
@@ -9611,19 +9611,19 @@
         <v>129261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>107688</v>
+        <v>104943</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>156370</v>
+        <v>155364</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2446322154087568</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2038041736945781</v>
+        <v>0.1986084915630249</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2959378511581385</v>
+        <v>0.294032650275177</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>216</v>
@@ -9632,19 +9632,19 @@
         <v>163104</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>144607</v>
+        <v>145453</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>182317</v>
+        <v>184382</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2987888431248433</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2649044272916635</v>
+        <v>0.2664553622779421</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3339848021749678</v>
+        <v>0.3377686955096676</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>314</v>
@@ -9653,19 +9653,19 @@
         <v>292365</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>262510</v>
+        <v>261255</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>324269</v>
+        <v>324028</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2721514847381954</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2443611487844864</v>
+        <v>0.2431922515910431</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3018499517136882</v>
+        <v>0.3016254627103959</v>
       </c>
     </row>
     <row r="10">
@@ -9682,19 +9682,19 @@
         <v>313068</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>283834</v>
+        <v>282335</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>340591</v>
+        <v>341330</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.592494475465539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5371686300022415</v>
+        <v>0.5343316521177968</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6445829544728959</v>
+        <v>0.6459830277565229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>202</v>
@@ -9703,19 +9703,19 @@
         <v>169529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>149925</v>
+        <v>149655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>189965</v>
+        <v>190737</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3105590038632537</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2746461441164867</v>
+        <v>0.2741525241409203</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3479959228091099</v>
+        <v>0.3494108736196072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>416</v>
@@ -9724,19 +9724,19 @@
         <v>482596</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>448004</v>
+        <v>446275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>516243</v>
+        <v>517066</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4492311574978847</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.417030610560419</v>
+        <v>0.4154212494899229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4805519166734528</v>
+        <v>0.4813176576125658</v>
       </c>
     </row>
     <row r="11">
@@ -9828,19 +9828,19 @@
         <v>32121</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22755</v>
+        <v>22768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44007</v>
+        <v>44699</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1016512207813447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07200968710479955</v>
+        <v>0.07205121530604461</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1392666214313332</v>
+        <v>0.1414559198317663</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>181</v>
@@ -9849,19 +9849,19 @@
         <v>114723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>100573</v>
+        <v>100511</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>128866</v>
+        <v>131025</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.321911400084341</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2822066300920558</v>
+        <v>0.2820319366087853</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3615959944024946</v>
+        <v>0.3676535743591187</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>218</v>
@@ -9870,19 +9870,19 @@
         <v>146844</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>129336</v>
+        <v>129080</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>165710</v>
+        <v>166567</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2183965562271067</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.19235628105979</v>
+        <v>0.1919769291028724</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2464542059715206</v>
+        <v>0.2477297846407096</v>
       </c>
     </row>
     <row r="13">
@@ -9899,19 +9899,19 @@
         <v>89380</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75146</v>
+        <v>75260</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104339</v>
+        <v>106353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2828536586206222</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2378088812216233</v>
+        <v>0.2381685529108681</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3301942941036299</v>
+        <v>0.3365676875253678</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>200</v>
@@ -9920,19 +9920,19 @@
         <v>131433</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>115945</v>
+        <v>116909</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>145782</v>
+        <v>145770</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.36880036468686</v>
+        <v>0.3688003646868599</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3253402114170538</v>
+        <v>0.3280463433700066</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4090610264919688</v>
+        <v>0.4090284511205582</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>302</v>
@@ -9941,19 +9941,19 @@
         <v>220814</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>199469</v>
+        <v>200481</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>243194</v>
+        <v>242053</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3284083161257282</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2966637749787935</v>
+        <v>0.2981684068965627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.361694254614946</v>
+        <v>0.3599970145645567</v>
       </c>
     </row>
     <row r="14">
@@ -9970,19 +9970,19 @@
         <v>194492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>177640</v>
+        <v>176540</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>209894</v>
+        <v>209976</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.615495120598033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5621659302088891</v>
+        <v>0.558683903312468</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6642372913681333</v>
+        <v>0.6644952873254719</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -9991,19 +9991,19 @@
         <v>110224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>96422</v>
+        <v>95426</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126475</v>
+        <v>125656</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.309288235228799</v>
+        <v>0.3092882352287991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2705593662340764</v>
+        <v>0.2677647073132799</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3548876974484247</v>
+        <v>0.3525892721248168</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>376</v>
@@ -10012,19 +10012,19 @@
         <v>304717</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>281854</v>
+        <v>279893</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>329402</v>
+        <v>328705</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4531951276471652</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4191921513115882</v>
+        <v>0.4162752301204126</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4899078839364697</v>
+        <v>0.4888710063803904</v>
       </c>
     </row>
     <row r="15">
@@ -10116,19 +10116,19 @@
         <v>70656</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>52081</v>
+        <v>51679</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95171</v>
+        <v>95132</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1893539679183864</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1395736124058439</v>
+        <v>0.1384961630981722</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2550501506564475</v>
+        <v>0.2549459722928082</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>251</v>
@@ -10137,19 +10137,19 @@
         <v>158702</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>140974</v>
+        <v>141854</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>179718</v>
+        <v>180802</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3761049126976578</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3340923535452531</v>
+        <v>0.3361781298890127</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4259121894898074</v>
+        <v>0.4284810007083358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>301</v>
@@ -10158,19 +10158,19 @@
         <v>229358</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>201841</v>
+        <v>202046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>261660</v>
+        <v>259280</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2884622990056602</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.253854361829512</v>
+        <v>0.2541119644868429</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3290878783728385</v>
+        <v>0.3260942329850793</v>
       </c>
     </row>
     <row r="17">
@@ -10187,19 +10187,19 @@
         <v>76806</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>57950</v>
+        <v>57235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97454</v>
+        <v>97878</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2058341185192523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1553011017123371</v>
+        <v>0.1533860356387522</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2611680625066093</v>
+        <v>0.2623048570538862</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -10208,19 +10208,19 @@
         <v>103618</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87510</v>
+        <v>87043</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124440</v>
+        <v>122453</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2455630014888151</v>
+        <v>0.2455630014888152</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2073889468844527</v>
+        <v>0.2062825321949928</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2949093581983699</v>
+        <v>0.2902004247865425</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>205</v>
@@ -10229,19 +10229,19 @@
         <v>180424</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>154608</v>
+        <v>155502</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>207168</v>
+        <v>208822</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2269181526146559</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1944491259800225</v>
+        <v>0.1955740064777154</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2605540573934322</v>
+        <v>0.2626336915701993</v>
       </c>
     </row>
     <row r="18">
@@ -10258,19 +10258,19 @@
         <v>225683</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>198316</v>
+        <v>198372</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>250269</v>
+        <v>249861</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6048119135623614</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5314714740449517</v>
+        <v>0.531621805107053</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6707025991339219</v>
+        <v>0.6696095119406918</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>208</v>
@@ -10279,19 +10279,19 @@
         <v>159641</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>141202</v>
+        <v>140119</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>177178</v>
+        <v>178213</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.3783320858135271</v>
+        <v>0.3783320858135272</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3346335733438593</v>
+        <v>0.3320655812585886</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4198907356248344</v>
+        <v>0.4223458382429155</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>385</v>
@@ -10300,19 +10300,19 @@
         <v>385324</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>351360</v>
+        <v>351861</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>417185</v>
+        <v>417374</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.484619548379684</v>
+        <v>0.4846195483796839</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4419028075885273</v>
+        <v>0.4425332561085778</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5246909255175158</v>
+        <v>0.5249276803543734</v>
       </c>
     </row>
     <row r="19">
@@ -10404,19 +10404,19 @@
         <v>123963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113185</v>
+        <v>111694</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137731</v>
+        <v>136414</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6027440689980219</v>
+        <v>0.602744068998022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5503384834574599</v>
+        <v>0.5430858015376716</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6696869675161958</v>
+        <v>0.6632827038354268</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>375</v>
@@ -10425,19 +10425,19 @@
         <v>172372</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162687</v>
+        <v>161805</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>180621</v>
+        <v>181348</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7586298250372489</v>
+        <v>0.7586298250372486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.716005538064454</v>
+        <v>0.7121207574800323</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7949347335550478</v>
+        <v>0.7981323588246034</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>543</v>
@@ -10446,19 +10446,19 @@
         <v>296335</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>280026</v>
+        <v>279018</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>312450</v>
+        <v>310485</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6845671665800555</v>
+        <v>0.6845671665800557</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6468916331042012</v>
+        <v>0.6445634179444609</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7217945065824752</v>
+        <v>0.7172547138667998</v>
       </c>
     </row>
     <row r="21">
@@ -10475,19 +10475,19 @@
         <v>43225</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>32963</v>
+        <v>34205</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>54111</v>
+        <v>54050</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2101731821955743</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1602742279701604</v>
+        <v>0.1663129279451367</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2631022985227974</v>
+        <v>0.2628067526715717</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>89</v>
@@ -10496,19 +10496,19 @@
         <v>39265</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32083</v>
+        <v>32537</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46882</v>
+        <v>48409</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1728094832705364</v>
+        <v>0.1728094832705363</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1412002914741527</v>
+        <v>0.1431973783112365</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2063316195239423</v>
+        <v>0.2130523103199149</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>148</v>
@@ -10517,19 +10517,19 @@
         <v>82490</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>69588</v>
+        <v>71106</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>94685</v>
+        <v>95901</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1905612967940641</v>
+        <v>0.190561296794064</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1607551945613763</v>
+        <v>0.1642627798260438</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.218733172389493</v>
+        <v>0.2215413586173146</v>
       </c>
     </row>
     <row r="22">
@@ -10546,19 +10546,19 @@
         <v>38476</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29567</v>
+        <v>30125</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48443</v>
+        <v>49766</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1870827488064037</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1437639794138027</v>
+        <v>0.1464773512325006</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.235541909393223</v>
+        <v>0.2419754998403029</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>28</v>
@@ -10567,19 +10567,19 @@
         <v>15578</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10274</v>
+        <v>10367</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23815</v>
+        <v>23868</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06856069169221486</v>
+        <v>0.06856069169221483</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04521578984615923</v>
+        <v>0.04562567355245122</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1048104918683458</v>
+        <v>0.1050468836988136</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -10588,19 +10588,19 @@
         <v>54054</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43640</v>
+        <v>43874</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67674</v>
+        <v>67509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1248715366258804</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1008143763013519</v>
+        <v>0.1013550593279397</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.156333624883595</v>
+        <v>0.1559525119372153</v>
       </c>
     </row>
     <row r="23">
@@ -10692,19 +10692,19 @@
         <v>35199</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>26081</v>
+        <v>26404</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>46137</v>
+        <v>45210</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1303883022014317</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09661266348039715</v>
+        <v>0.09780743456387948</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1709050752464422</v>
+        <v>0.167471260818661</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>156</v>
@@ -10713,19 +10713,19 @@
         <v>78412</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>67208</v>
+        <v>67602</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>90635</v>
+        <v>91047</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.297296746082707</v>
+        <v>0.2972967460827068</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2548159542065933</v>
+        <v>0.2563120051876153</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3436414927917789</v>
+        <v>0.3452009361076512</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>206</v>
@@ -10734,19 +10734,19 @@
         <v>113611</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>98678</v>
+        <v>98879</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>129412</v>
+        <v>130065</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2128725352024962</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1848930134158846</v>
+        <v>0.1852690742193154</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2424789616813695</v>
+        <v>0.2437019108077986</v>
       </c>
     </row>
     <row r="25">
@@ -10763,19 +10763,19 @@
         <v>63073</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51381</v>
+        <v>51107</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75647</v>
+        <v>75269</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.233644453207693</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1903324804190779</v>
+        <v>0.1893192398414621</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2802234614404113</v>
+        <v>0.2788223026464882</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>145</v>
@@ -10784,19 +10784,19 @@
         <v>78898</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67528</v>
+        <v>67516</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>91009</v>
+        <v>89490</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2991394473194879</v>
+        <v>0.2991394473194878</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2560284984361657</v>
+        <v>0.2559866254033699</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3450574189707092</v>
+        <v>0.3392988640435408</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>244</v>
@@ -10805,19 +10805,19 @@
         <v>141971</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125737</v>
+        <v>126487</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159378</v>
+        <v>158847</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2660113259020629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2355938140303305</v>
+        <v>0.2369975064714747</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2986264582881047</v>
+        <v>0.2976311582311578</v>
       </c>
     </row>
     <row r="26">
@@ -10834,19 +10834,19 @@
         <v>171682</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>157785</v>
+        <v>157585</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>184174</v>
+        <v>185893</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6359672445908754</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5844894410259653</v>
+        <v>0.5837474231687831</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6822407575466515</v>
+        <v>0.6886113417312921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>159</v>
@@ -10855,19 +10855,19 @@
         <v>106440</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94652</v>
+        <v>93607</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>119151</v>
+        <v>119745</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4035638065978053</v>
+        <v>0.4035638065978051</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3588705897350834</v>
+        <v>0.3549080534313869</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4517590861643662</v>
+        <v>0.4540104682359771</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>380</v>
@@ -10876,19 +10876,19 @@
         <v>278122</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>259586</v>
+        <v>260129</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>297339</v>
+        <v>298168</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.521116138895441</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4863862165589176</v>
+        <v>0.4874035499906055</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5571236985120673</v>
+        <v>0.5586757849955021</v>
       </c>
     </row>
     <row r="27">
@@ -10980,19 +10980,19 @@
         <v>149245</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>123432</v>
+        <v>123658</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>175999</v>
+        <v>177242</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2086916253740845</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1725973038623084</v>
+        <v>0.1729129412298829</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2461027625684811</v>
+        <v>0.2478407921520375</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>311</v>
@@ -11001,19 +11001,19 @@
         <v>242124</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>219660</v>
+        <v>217425</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>267164</v>
+        <v>267893</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3154208466560499</v>
+        <v>0.3154208466560498</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2861556989497888</v>
+        <v>0.283244773196117</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3480408325721231</v>
+        <v>0.3489906390897036</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>432</v>
@@ -11022,19 +11022,19 @@
         <v>391369</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>357644</v>
+        <v>357783</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>429233</v>
+        <v>427918</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2639448893049149</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2411999145217523</v>
+        <v>0.2412937521313289</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2894804054411216</v>
+        <v>0.2885939860031099</v>
       </c>
     </row>
     <row r="29">
@@ -11051,19 +11051,19 @@
         <v>146916</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>124926</v>
+        <v>124417</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>174353</v>
+        <v>175235</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2054356647048113</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1746860519944379</v>
+        <v>0.1739743461195857</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2438007013065633</v>
+        <v>0.2450342949933201</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>254</v>
@@ -11072,19 +11072,19 @@
         <v>204404</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>181545</v>
+        <v>183120</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>227765</v>
+        <v>228182</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2662822969637633</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2365023852696089</v>
+        <v>0.2385546096537544</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2967142368651778</v>
+        <v>0.2972584411874622</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>380</v>
@@ -11093,19 +11093,19 @@
         <v>351321</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>318478</v>
+        <v>319336</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>383766</v>
+        <v>385345</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.236935707440288</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2147858656157478</v>
+        <v>0.2153647423336418</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2588170126021194</v>
+        <v>0.2598818721772294</v>
       </c>
     </row>
     <row r="30">
@@ -11122,19 +11122,19 @@
         <v>418985</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>389388</v>
+        <v>390653</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>451508</v>
+        <v>450746</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.5858727099211042</v>
+        <v>0.5858727099211041</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5444876124209606</v>
+        <v>0.5462569344688146</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.631351316906089</v>
+        <v>0.6302847637994031</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>389</v>
@@ -11143,19 +11143,19 @@
         <v>321094</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>293891</v>
+        <v>295083</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>347249</v>
+        <v>348193</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.418296856380187</v>
+        <v>0.4182968563801868</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3828581579908625</v>
+        <v>0.3844110847614088</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4523692370491678</v>
+        <v>0.4535987539206784</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>737</v>
@@ -11164,19 +11164,19 @@
         <v>740079</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>699961</v>
+        <v>696724</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>776038</v>
+        <v>778938</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.499119403254797</v>
+        <v>0.4991194032547971</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4720635766711803</v>
+        <v>0.4698801013398984</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5233704673266516</v>
+        <v>0.5253267457351565</v>
       </c>
     </row>
     <row r="31">
@@ -11268,19 +11268,19 @@
         <v>76462</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>59477</v>
+        <v>60549</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>97989</v>
+        <v>98489</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09580841723138712</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07452544006799053</v>
+        <v>0.0758687930948336</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1227823936055496</v>
+        <v>0.1234091622046917</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>180</v>
@@ -11289,19 +11289,19 @@
         <v>146722</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>126047</v>
+        <v>125632</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>166838</v>
+        <v>166417</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.177199051694682</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1522298334793869</v>
+        <v>0.1517292099302576</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2014946204000869</v>
+        <v>0.2009861031253078</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>247</v>
@@ -11310,19 +11310,19 @@
         <v>223184</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>195438</v>
+        <v>197673</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>252976</v>
+        <v>254751</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1372528345693581</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1201900152269865</v>
+        <v>0.1215644740372972</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1555747109588852</v>
+        <v>0.1566663101746653</v>
       </c>
     </row>
     <row r="33">
@@ -11339,19 +11339,19 @@
         <v>275325</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>247525</v>
+        <v>244830</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>305825</v>
+        <v>303844</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.3449876592078847</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3101542274940114</v>
+        <v>0.3067762441092481</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3832041729586074</v>
+        <v>0.3807219293463955</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>535</v>
@@ -11360,19 +11360,19 @@
         <v>404793</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>379020</v>
+        <v>380159</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>429323</v>
+        <v>431584</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4888775136308737</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4577512586681773</v>
+        <v>0.4591272284495994</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5185040206455264</v>
+        <v>0.5212340936396508</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>798</v>
@@ -11381,19 +11381,19 @@
         <v>680118</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>640958</v>
+        <v>638671</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>717812</v>
+        <v>718316</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.4182569145310585</v>
+        <v>0.4182569145310584</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3941744130947346</v>
+        <v>0.39276797128387</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4414384352862195</v>
+        <v>0.441748117633288</v>
       </c>
     </row>
     <row r="34">
@@ -11410,19 +11410,19 @@
         <v>446285</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>415218</v>
+        <v>418481</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>475818</v>
+        <v>476667</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5592039235607281</v>
+        <v>0.559203923560728</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5202758848027941</v>
+        <v>0.5243655677162374</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5962095315933</v>
+        <v>0.5972734686616908</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>343</v>
@@ -11431,19 +11431,19 @@
         <v>276490</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>250343</v>
+        <v>253358</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>298133</v>
+        <v>302852</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3339234346744442</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3023451157708626</v>
+        <v>0.3059866722726017</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.360062604867765</v>
+        <v>0.3657612465182788</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>775</v>
@@ -11452,19 +11452,19 @@
         <v>722775</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>684032</v>
+        <v>682013</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>766202</v>
+        <v>763458</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.4444902508995835</v>
+        <v>0.4444902508995834</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4206644349820338</v>
+        <v>0.4194226003250761</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4711967563136948</v>
+        <v>0.4695091634026252</v>
       </c>
     </row>
     <row r="35">
@@ -11556,19 +11556,19 @@
         <v>620735</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>570483</v>
+        <v>569131</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>669629</v>
+        <v>673675</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1760847114007972</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.161829647124162</v>
+        <v>0.1614461578372334</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1899544873213449</v>
+        <v>0.1911022542583818</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1845</v>
@@ -11577,19 +11577,19 @@
         <v>1186464</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1139343</v>
+        <v>1135361</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>1237041</v>
+        <v>1233085</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3183532230944283</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3057096349695195</v>
+        <v>0.304641200187052</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3319240739077826</v>
+        <v>0.3308625014123517</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2450</v>
@@ -11598,19 +11598,19 @@
         <v>1807199</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1741886</v>
+        <v>1740185</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1886694</v>
+        <v>1874859</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2491971029518278</v>
+        <v>0.2491971029518277</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2401909293445659</v>
+        <v>0.2399563470968033</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2601586911643961</v>
+        <v>0.2585268153710837</v>
       </c>
     </row>
     <row r="37">
@@ -11627,19 +11627,19 @@
         <v>894611</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>839438</v>
+        <v>841355</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>954306</v>
+        <v>954209</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2537752739243201</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2381242096081128</v>
+        <v>0.2386679920388169</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2707091486835022</v>
+        <v>0.2706814203720839</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1783</v>
@@ -11648,19 +11648,19 @@
         <v>1234188</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1182292</v>
+        <v>1189799</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1290944</v>
+        <v>1288692</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3311585460608381</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3172337411184025</v>
+        <v>0.3192480411351775</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3463873262657443</v>
+        <v>0.3457830299432084</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2666</v>
@@ -11669,19 +11669,19 @@
         <v>2128799</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2058683</v>
+        <v>2046622</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2212881</v>
+        <v>2202774</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2935428656745495</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2838745513367951</v>
+        <v>0.2822113840015082</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3051370951522325</v>
+        <v>0.3037433721978933</v>
       </c>
     </row>
     <row r="38">
@@ -11698,19 +11698,19 @@
         <v>2009863</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1943458</v>
+        <v>1944116</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>2072626</v>
+        <v>2078262</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5701400146748827</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5513029525160253</v>
+        <v>0.5514895018504656</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5879442276979255</v>
+        <v>0.5895430519135003</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1725</v>
@@ -11719,19 +11719,19 @@
         <v>1306227</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1251060</v>
+        <v>1257168</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1363811</v>
+        <v>1359236</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3504882308447337</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3356856257961684</v>
+        <v>0.3373246075142552</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3659391402411011</v>
+        <v>0.3647115943756659</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3606</v>
@@ -11740,19 +11740,19 @@
         <v>3316090</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3226119</v>
+        <v>3221856</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>3400837</v>
+        <v>3403456</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4572600313736226</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4448538803042219</v>
+        <v>0.444265964261615</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4689459074201456</v>
+        <v>0.4693071033751439</v>
       </c>
     </row>
     <row r="39">
